--- a/client_gamedata/settings.xlsx
+++ b/client_gamedata/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_1_0 (client-3.1.0; server-3.1.0)</v>
+        <v>prod-3_2_0 (client-3.2.0; server-3.2.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>5eTEJfyniWsyIMd93+k61mUNr6rvOeiRLVN2BVGCvba9swh18EZiHnc4dssLfsNv</v>
+        <v>YPhA0K2krFsIq/+i53Ii2RVbOTD5gnz5pBzkZ2di110wXMeOrnsSTfvZE8nkBF5X</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>7H3zvL5UIUUwALM9VG6NhhbohzC0za2QSj1gmjKz13f6eq95zBkz3+faU5spJrgW</v>
+        <v>ANP8fGGd0yN5W2NTGo9RnDySQpezxjkJ3Znhgj/YKZo1ZoEbVS0c3N6LtCLtfEWL</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>brgiQJRGLPeB4wlzTv8Z2h1wEA7eA6bvAJE/Q+ZuONGoWC8voUWGcZVpABz7Ydki</v>
+        <v>K3BPck4Oe/VsCztjUPYNbRNaYuQCnM1BoLkFPy2tbgdAeOOKF685jZWDJ3sBFV0L</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>nClWX7VNvbk6D0wR9B1xWfbXG8FkOOXqDDf+InVTbrbWNxLCbqreDMIuWuDLj7TW</v>
+        <v>TXyZkaCfD0oitWMmR0BI6ZydyO3E5/4HXbpDlKt6n7nF4tvL0+QMJE6jON5SzmyU</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>N5sV0fLrdb0sFTh5Sg6sZi9VQ5co1HDnsvt6MsdODMdIhMnGRU9MR9DsUwzv78Na</v>
+        <v>G3X0+rAUe/TC8oLr2YL0rzzvGRxpS9z2/s/lTiCr4thK2HPs/vPSAfpzDqAOTc4y</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>hgE39XbxBg6jApFIhc9Af8kseaUzEgepKzQlpghXGheFieQXhTT5c0dDErZ1uBlo</v>
+        <v>vw5BG69nsuz5ThcwBSNSWWErbcgZZ83xNf77Qnc0zOXJVxR6FUqcSPA1P1jSUAHm</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>mZeEU8OlFECgBjaahet0YEqdfoKPMoNQY9VlCBucxAl5S2I2mU6Vn6j0Zs4S7cT6</v>
+        <v>Sma4/CnhWma8zvrK0DsMNuqYOisecied6yIR2RHu+H3J4OkgTbM96pAUcKJ2/WL2</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>9ZUvSPsLtw1iyjaeh4Ht69+4WwkTtuF9nvvH9LkyjF8a4Tl701c2Fa8fJyP6fvvr</v>
+        <v>GrauI6qSu/PsZ7kj2/XzrBCcVVbbiJg0xsmg3ArpcBRyvy4ECNw3bkj+olkaH0Ar</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/settings.xlsx
+++ b/client_gamedata/settings.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Config'!A1:B26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Config'!A1:B27</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_2_0 (client-3.2.0; server-3.2.0)</v>
+        <v>prod-3_6_0</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>YPhA0K2krFsIq/+i53Ii2RVbOTD5gnz5pBzkZ2di110wXMeOrnsSTfvZE8nkBF5X</v>
+        <v>dkGu/XaA9wVRuisLWQ+r9eo+R0NlCk8mPEPOWS//lAGe2WYJUGlcSpdtURTMiUXU</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>ANP8fGGd0yN5W2NTGo9RnDySQpezxjkJ3Znhgj/YKZo1ZoEbVS0c3N6LtCLtfEWL</v>
+        <v>VGaN1AOodGJVoWtdvtCYGPt3UoArBz5m0rpbN1qX/S1nFAaTYmHzGwq4DRWCk7UO</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>K3BPck4Oe/VsCztjUPYNbRNaYuQCnM1BoLkFPy2tbgdAeOOKF685jZWDJ3sBFV0L</v>
+        <v>qnH44luX+VjsGaul8BTl97gZYfoJWDEuvu0QAEPm0kf3BZQv/Lpb7KF82hOc7PKB</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>TXyZkaCfD0oitWMmR0BI6ZydyO3E5/4HXbpDlKt6n7nF4tvL0+QMJE6jON5SzmyU</v>
+        <v>w1cRC8FgfxeT3O6yUaa3OH//qQFEXrzANxIzNviiuAFCBeGANuSyO27cmoGczYMJ</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>G3X0+rAUe/TC8oLr2YL0rzzvGRxpS9z2/s/lTiCr4thK2HPs/vPSAfpzDqAOTc4y</v>
+        <v>s4ik8kDEOtbpVNXuoi2yULtdMrWM+F6vUL3Y3oHKuyAGzUMQTUF3PgSWEuSCRjXp</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>vw5BG69nsuz5ThcwBSNSWWErbcgZZ83xNf77Qnc0zOXJVxR6FUqcSPA1P1jSUAHm</v>
+        <v>nlzRNKTOO5ssvIem82UwUbGWU7a1bM2NE83rAa05h24rkkUyRDsCBjcUGTGSHTnl</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>Sma4/CnhWma8zvrK0DsMNuqYOisecied6yIR2RHu+H3J4OkgTbM96pAUcKJ2/WL2</v>
+        <v>34rB5Fs5NMeAj/0KA/xJsURZrrZBhLizczXLDG+huGJ34mVl6gj0MdG5DfCMPwJh</v>
       </c>
     </row>
     <row r="26">
@@ -588,13 +588,21 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>GrauI6qSu/PsZ7kj2/XzrBCcVVbbiJg0xsmg3ArpcBRyvy4ECNw3bkj+olkaH0Ar</v>
+        <v>pIKstpRNutdsHs9ZAjZKIYkZ2tSXPCmJuKKrX4VwV77E10+cwPvxiajpi1qkc6w3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>IMPERIUM_DIALOG_TAG_UUID</v>
+      </c>
+      <c r="B27" t="str">
+        <v>R7hW4qUJDBG91Oo629h49DIqSHgFWhaflpHr7LX5Ob5bXw4Z1S7TB8n/oWjDE/HO</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26"/>
+  <autoFilter ref="A1:B27"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/settings.xlsx
+++ b/client_gamedata/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_6_0</v>
+        <v>prod-3_7_0 (client-3.7.0; server-3.7.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>dkGu/XaA9wVRuisLWQ+r9eo+R0NlCk8mPEPOWS//lAGe2WYJUGlcSpdtURTMiUXU</v>
+        <v>ioFqj5HenpWEHJP1y7X3FhT2tnKE+rTE5/b+8wl18lQH39lSrmWD0TBBMoBTxISR</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>VGaN1AOodGJVoWtdvtCYGPt3UoArBz5m0rpbN1qX/S1nFAaTYmHzGwq4DRWCk7UO</v>
+        <v>zxum67dsTnN0VF9C9mTbsFymUUnhx5+y+b1YN/WDeGvkiJqDobN140yVyJru/YTj</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>qnH44luX+VjsGaul8BTl97gZYfoJWDEuvu0QAEPm0kf3BZQv/Lpb7KF82hOc7PKB</v>
+        <v>BRDSzAW1BKn9bv5G7tL4zC2tY8VkI73J1Y/dKRTBkhzf+66AmDcXQC1izo9pTcGE</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>w1cRC8FgfxeT3O6yUaa3OH//qQFEXrzANxIzNviiuAFCBeGANuSyO27cmoGczYMJ</v>
+        <v>kzQ3IiojBuGwZ99HYM5Qvk+LHOpUTR20WcAEzeX8n4O8RB9OMeL4kBKdunTAkMQk</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>s4ik8kDEOtbpVNXuoi2yULtdMrWM+F6vUL3Y3oHKuyAGzUMQTUF3PgSWEuSCRjXp</v>
+        <v>swqEu7mousr1tqIEanhedsFIrVcFw4X+kC2HUWuaov4VrLL8EpjaOFakCXggeDGu</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>nlzRNKTOO5ssvIem82UwUbGWU7a1bM2NE83rAa05h24rkkUyRDsCBjcUGTGSHTnl</v>
+        <v>b47Jck2ZtKS9VTDuLTs6JYKg69sVM+vBl4DeFure5BPLckLECzQpetk577liuxZS</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>34rB5Fs5NMeAj/0KA/xJsURZrrZBhLizczXLDG+huGJ34mVl6gj0MdG5DfCMPwJh</v>
+        <v>eaamadUcVZ6AvfW5itunxsAqhzSIGtdPs/eNfbnrKhJnwjdSHQvZpkmxl0IjRQ1W</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>pIKstpRNutdsHs9ZAjZKIYkZ2tSXPCmJuKKrX4VwV77E10+cwPvxiajpi1qkc6w3</v>
+        <v>t8ra7RHh1qcMkANOo7gkxXm+I+YeJg2swPOA45dBopQ/ceh2dair4m+dQlR284lN</v>
       </c>
     </row>
     <row r="27">
@@ -596,7 +596,7 @@
         <v>IMPERIUM_DIALOG_TAG_UUID</v>
       </c>
       <c r="B27" t="str">
-        <v>R7hW4qUJDBG91Oo629h49DIqSHgFWhaflpHr7LX5Ob5bXw4Z1S7TB8n/oWjDE/HO</v>
+        <v>V3otWiwMFkeGPLQXCRCnDP9u2qoJDuyKZnKpdk8J8Wwqr/a7nMJ6QG8S309a4o2x</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/settings.xlsx
+++ b/client_gamedata/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_7_0 (client-3.7.0; server-3.7.0)</v>
+        <v>prod-3_8_0 (client-3.8.0; server-3.8.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>ioFqj5HenpWEHJP1y7X3FhT2tnKE+rTE5/b+8wl18lQH39lSrmWD0TBBMoBTxISR</v>
+        <v>1qC8QkzXw4oUUuhD20wvZx0gOzNoz+V7PrsdCApW9LCGa2skPCWK2tvKo3j7FqBy</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>zxum67dsTnN0VF9C9mTbsFymUUnhx5+y+b1YN/WDeGvkiJqDobN140yVyJru/YTj</v>
+        <v>J7YziBgH8X1tTaH3TDQo2WK2McpYRqyexeEuMm+vh7MDuPZcmFwWXkJlFZzFX50R</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>BRDSzAW1BKn9bv5G7tL4zC2tY8VkI73J1Y/dKRTBkhzf+66AmDcXQC1izo9pTcGE</v>
+        <v>mJNzvcGsbSmhxo21YAA5GzK80Tnq1kZPVHt0m/YnF8cD/7c16nYGz0+FCnqNdt95</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>kzQ3IiojBuGwZ99HYM5Qvk+LHOpUTR20WcAEzeX8n4O8RB9OMeL4kBKdunTAkMQk</v>
+        <v>HRcu6Ll7LxGviSPIheUYwGLRDlifGbWrkQEV7ytYolY3lbDfwBjVGGSOtzpFtY1s</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>swqEu7mousr1tqIEanhedsFIrVcFw4X+kC2HUWuaov4VrLL8EpjaOFakCXggeDGu</v>
+        <v>KOKJhhyT5Vbhp4A5Nm4YiLF1eo6Vm7PJiTvoLRPGlbYD898KS5nNQI7FpzymXy1g</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>b47Jck2ZtKS9VTDuLTs6JYKg69sVM+vBl4DeFure5BPLckLECzQpetk577liuxZS</v>
+        <v>2XgOyHusrV50I7NwEd4/pdnrmFz1wbfbmPCNM0ndEK+kh7wEsdMDoi9kcu0gzS5J</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>eaamadUcVZ6AvfW5itunxsAqhzSIGtdPs/eNfbnrKhJnwjdSHQvZpkmxl0IjRQ1W</v>
+        <v>Nsqipg+zG43bzIDNRRJbhgcBDlgBVtXQ0KnF22FJHYKIU5GoozpjbYvJ4PlmeRrk</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>t8ra7RHh1qcMkANOo7gkxXm+I+YeJg2swPOA45dBopQ/ceh2dair4m+dQlR284lN</v>
+        <v>pucHWrw5zZMA08mrp6MKXe223PunDTNysjpbI2WaOG6by9UCoj10Axk0VlFiIkSZ</v>
       </c>
     </row>
     <row r="27">
@@ -596,7 +596,7 @@
         <v>IMPERIUM_DIALOG_TAG_UUID</v>
       </c>
       <c r="B27" t="str">
-        <v>V3otWiwMFkeGPLQXCRCnDP9u2qoJDuyKZnKpdk8J8Wwqr/a7nMJ6QG8S309a4o2x</v>
+        <v>7vc/Eax82Ujk/HhCUssFVFIHRA4BBxKlD/7BEyGJnIpkqGv0UcSFQzXO40za5TlP</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/settings.xlsx
+++ b/client_gamedata/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-3_8_0 (client-3.8.0; server-3.8.0)</v>
+        <v>prod-4_0_0 (client-4.0.0; server-4.0.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>1qC8QkzXw4oUUuhD20wvZx0gOzNoz+V7PrsdCApW9LCGa2skPCWK2tvKo3j7FqBy</v>
+        <v>2YKYli9ltqyRZp8QnpGRGHhfssB0VzNtRgliTH6z043mvBVApPvou0ODPQq0jBmu</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>J7YziBgH8X1tTaH3TDQo2WK2McpYRqyexeEuMm+vh7MDuPZcmFwWXkJlFZzFX50R</v>
+        <v>lF199EcDsDjkTphc9OWMOHhTomONr1nBao5A2aIaiBL40AAQOp8jUqtdBPzkjR7j</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>mJNzvcGsbSmhxo21YAA5GzK80Tnq1kZPVHt0m/YnF8cD/7c16nYGz0+FCnqNdt95</v>
+        <v>UMDegGVQQMEIWNpCr2X3um+IdDYXaNFobPJpnmTggjFyycMvbpZZkSfnnPPyckW5</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>HRcu6Ll7LxGviSPIheUYwGLRDlifGbWrkQEV7ytYolY3lbDfwBjVGGSOtzpFtY1s</v>
+        <v>8HE9PHmQe1tHvPn+P64wteJ3etdauNoDWQ2IQ90BFStBeSUhGjMN1RoaMWpyZexa</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>KOKJhhyT5Vbhp4A5Nm4YiLF1eo6Vm7PJiTvoLRPGlbYD898KS5nNQI7FpzymXy1g</v>
+        <v>czhe+h83mDpdTZIsEEpFL8ja3w9eM4hSep5hUaPT3nXFKCtnS5Gdg93biMpAwLl3</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>2XgOyHusrV50I7NwEd4/pdnrmFz1wbfbmPCNM0ndEK+kh7wEsdMDoi9kcu0gzS5J</v>
+        <v>u83sMOcrmd05vrF0MccEPejj6K1L1AK5qHpwWmvBNheFfwpZ6vmtP5bV/52hYNoA</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>Nsqipg+zG43bzIDNRRJbhgcBDlgBVtXQ0KnF22FJHYKIU5GoozpjbYvJ4PlmeRrk</v>
+        <v>yTvVB02hT1ko+wW+5fjF6Wf+Hzq70DZUmHYqEeaGdVsZeg3EvBGchT1sUWuhE7D2</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>pucHWrw5zZMA08mrp6MKXe223PunDTNysjpbI2WaOG6by9UCoj10Axk0VlFiIkSZ</v>
+        <v>ohPzPJPVEfEzCg/PvJGltSyuk0jPP4Ef2VdQ/40UWDCw+sDdTaZVHc3m5rJl9nSS</v>
       </c>
     </row>
     <row r="27">
@@ -596,7 +596,7 @@
         <v>IMPERIUM_DIALOG_TAG_UUID</v>
       </c>
       <c r="B27" t="str">
-        <v>7vc/Eax82Ujk/HhCUssFVFIHRA4BBxKlD/7BEyGJnIpkqGv0UcSFQzXO40za5TlP</v>
+        <v>WYIjFziD+P5BOxQAUy7JHxq2gvlHLd62NVbJ18nPvRJ9xkY2DyFHR3g2yko25/Fe</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/settings.xlsx
+++ b/client_gamedata/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-4_0_0 (client-4.0.0; server-4.0.0)</v>
+        <v>prod-4_1_0 (client-4.1.0; server-4.1.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>2YKYli9ltqyRZp8QnpGRGHhfssB0VzNtRgliTH6z043mvBVApPvou0ODPQq0jBmu</v>
+        <v>U9lLIUFPX7IEN6V5sCYoecnc7+j5D/vM7EMBWxraogSVOc91qSfVReYojyBs0PGA</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>lF199EcDsDjkTphc9OWMOHhTomONr1nBao5A2aIaiBL40AAQOp8jUqtdBPzkjR7j</v>
+        <v>QpEQIl+VtTKsfmOm7PkIh/KOtYgYduwKUgK4kXFwm6K8kwW+kxwQyavyq3EAerNf</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>UMDegGVQQMEIWNpCr2X3um+IdDYXaNFobPJpnmTggjFyycMvbpZZkSfnnPPyckW5</v>
+        <v>HAeBWNXEHCyxfAKF0uckTCGrLe0Fmg5JewW0ZbURwsAeHLN0W1m8Cqkv0Mj8xX6F</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>8HE9PHmQe1tHvPn+P64wteJ3etdauNoDWQ2IQ90BFStBeSUhGjMN1RoaMWpyZexa</v>
+        <v>0dBDNg9RRpiA8nk0R/UerEG2IjJx8xU28Ws+lSHuLiv19Fu3pTZEdYXhfPqXYq51</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>czhe+h83mDpdTZIsEEpFL8ja3w9eM4hSep5hUaPT3nXFKCtnS5Gdg93biMpAwLl3</v>
+        <v>Uc7+JdbQdkVpscIJ8DwzcRGEdSaZYeKK8ZYxsmJ03OfuYjn2Ig49ptsD9jMxMeZY</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>u83sMOcrmd05vrF0MccEPejj6K1L1AK5qHpwWmvBNheFfwpZ6vmtP5bV/52hYNoA</v>
+        <v>mIRZRCAVbNRuR3fJH4JKHzuPBdrA525E1/MYKDvjum/EBkG5+VC1Abx0rpzQ47GB</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>yTvVB02hT1ko+wW+5fjF6Wf+Hzq70DZUmHYqEeaGdVsZeg3EvBGchT1sUWuhE7D2</v>
+        <v>fS5AHOzcWeM5wtL3+BdwOJyENb0buoHp7V8sV014KHpF+ZjjxvEEUCp4wOIQmh8F</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>ohPzPJPVEfEzCg/PvJGltSyuk0jPP4Ef2VdQ/40UWDCw+sDdTaZVHc3m5rJl9nSS</v>
+        <v>H9AjDxWuKQ4UTUUyrabKkK5/wlXmbQXpm5ASL4RwcPMnlbhdSCkCYFlbc0yPDi/e</v>
       </c>
     </row>
     <row r="27">
@@ -596,7 +596,7 @@
         <v>IMPERIUM_DIALOG_TAG_UUID</v>
       </c>
       <c r="B27" t="str">
-        <v>WYIjFziD+P5BOxQAUy7JHxq2gvlHLd62NVbJ18nPvRJ9xkY2DyFHR3g2yko25/Fe</v>
+        <v>lDV2uw7xNXnCG8m14TKJ1P4zYzACzpskpMP/X+cQUZVgQvWEzajOSrfrkiLEkHjn</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/settings.xlsx
+++ b/client_gamedata/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-4_1_0 (client-4.1.0; server-4.1.0)</v>
+        <v>prod-4_2_0 (client-4.2.0; server-4.2.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>U9lLIUFPX7IEN6V5sCYoecnc7+j5D/vM7EMBWxraogSVOc91qSfVReYojyBs0PGA</v>
+        <v>EO/csor9ak7oQKCshZbWR5/KNSV3Xwp3jjzx/q8sVgTfSfNeF/LAKZoVcHAuSHrr</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>QpEQIl+VtTKsfmOm7PkIh/KOtYgYduwKUgK4kXFwm6K8kwW+kxwQyavyq3EAerNf</v>
+        <v>jfJeXtL6pKD+Q0QGOtHEsXYIRvcR79QLWAYWn33JVf5zJBOGpDRpuG0FLJQMaicU</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>HAeBWNXEHCyxfAKF0uckTCGrLe0Fmg5JewW0ZbURwsAeHLN0W1m8Cqkv0Mj8xX6F</v>
+        <v>sOvTgSMfBf9FDuczaUEijGZro8pWYSKDsBqRi+tb/I8lBO3PfkM/haPo0z2LBIC7</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>0dBDNg9RRpiA8nk0R/UerEG2IjJx8xU28Ws+lSHuLiv19Fu3pTZEdYXhfPqXYq51</v>
+        <v>/tsaqUI/G6sInap7tXsBxgtT99csTpKywacjkfI0GqYEnRA201nbVl4/SscSlm1D</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>Uc7+JdbQdkVpscIJ8DwzcRGEdSaZYeKK8ZYxsmJ03OfuYjn2Ig49ptsD9jMxMeZY</v>
+        <v>BFRa9hqvfKY9IdAuzftr1GsFgEc//gwKmBxJdKJZfxg0hf95E2QDYKDNQrv71g8N</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>mIRZRCAVbNRuR3fJH4JKHzuPBdrA525E1/MYKDvjum/EBkG5+VC1Abx0rpzQ47GB</v>
+        <v>/Ko4cn+z6QkB9sSu/01LzBGUdDRmatyykFjgAzB4MNfjZm+SfB5nIu+75C/NhD6Z</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>fS5AHOzcWeM5wtL3+BdwOJyENb0buoHp7V8sV014KHpF+ZjjxvEEUCp4wOIQmh8F</v>
+        <v>wPPXvUl840ADUUPuRTUEEnJeV+BSGPaYYR/nBuus8AjaXKIpFWWGn2n32c8qYrk+</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>H9AjDxWuKQ4UTUUyrabKkK5/wlXmbQXpm5ASL4RwcPMnlbhdSCkCYFlbc0yPDi/e</v>
+        <v>Qm5EYpA6SLl9vNlzNHJBgDGz6VSmUb+nNtgcnOp4FiB2ODYIO1BZZNZAA7DvIkbA</v>
       </c>
     </row>
     <row r="27">
@@ -596,7 +596,7 @@
         <v>IMPERIUM_DIALOG_TAG_UUID</v>
       </c>
       <c r="B27" t="str">
-        <v>lDV2uw7xNXnCG8m14TKJ1P4zYzACzpskpMP/X+cQUZVgQvWEzajOSrfrkiLEkHjn</v>
+        <v>3zih+zeVgQJUz4Z4SLJ179vFUJAIQ7AGx6GqW1YHQeSJXpTh4W8RG+IJ4Ek/ALNi</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/settings.xlsx
+++ b/client_gamedata/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-4_2_0 (client-4.2.0; server-4.2.0)</v>
+        <v>prod-4_3_0 (client-4.3.0; server-4.3.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>EO/csor9ak7oQKCshZbWR5/KNSV3Xwp3jjzx/q8sVgTfSfNeF/LAKZoVcHAuSHrr</v>
+        <v>Es6bRCZcXqnwDpl3KXeU62dXeF2vuDc4BAnm3xSb1Lhym8C2CUhHGM8lA5v6YtmP</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>jfJeXtL6pKD+Q0QGOtHEsXYIRvcR79QLWAYWn33JVf5zJBOGpDRpuG0FLJQMaicU</v>
+        <v>9BxyMEW9a8OqXwY6zNNZ7HE91SoA5Yt9W7YRORom+XKy0hXnf7nkNzI8/JzdsQW8</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>sOvTgSMfBf9FDuczaUEijGZro8pWYSKDsBqRi+tb/I8lBO3PfkM/haPo0z2LBIC7</v>
+        <v>WQDFF586JEOUk6cnaaHRvCRatUoGHLSjrD8tDpoEDpHyYRWrLTit7IsDRatWm0Ir</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>/tsaqUI/G6sInap7tXsBxgtT99csTpKywacjkfI0GqYEnRA201nbVl4/SscSlm1D</v>
+        <v>5pfGRtmUTdy82SUHFpw4hgLG2VFbvhycxbaBpy/xtbPeb/JIWmCp3hKxcsMK8J1/</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>BFRa9hqvfKY9IdAuzftr1GsFgEc//gwKmBxJdKJZfxg0hf95E2QDYKDNQrv71g8N</v>
+        <v>nufuuN1OtjK5PftJTY0eAqPq02vHm8egMFVvQaEN6FEcSdOO6tXb1HgsWTrOVZHE</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>/Ko4cn+z6QkB9sSu/01LzBGUdDRmatyykFjgAzB4MNfjZm+SfB5nIu+75C/NhD6Z</v>
+        <v>rs/mQ4b29mXu0d/FUzfEllIU4kyphmogKwaxCZaAdgSLGQS0/a6terHW4zJgP+O8</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>wPPXvUl840ADUUPuRTUEEnJeV+BSGPaYYR/nBuus8AjaXKIpFWWGn2n32c8qYrk+</v>
+        <v>F00MpXXPg7BfXN6N9mp4FryCHsdFHzMQQZNLkNoZ8ANWywkfkwJRJq91VctD6fwi</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>Qm5EYpA6SLl9vNlzNHJBgDGz6VSmUb+nNtgcnOp4FiB2ODYIO1BZZNZAA7DvIkbA</v>
+        <v>uROdbCFSHamQ7eq6ARNqn/fcS7sqh4kNNrEH/mJXtB2veBxBvgPAVwQK1evuyKK5</v>
       </c>
     </row>
     <row r="27">
@@ -596,7 +596,7 @@
         <v>IMPERIUM_DIALOG_TAG_UUID</v>
       </c>
       <c r="B27" t="str">
-        <v>3zih+zeVgQJUz4Z4SLJ179vFUJAIQ7AGx6GqW1YHQeSJXpTh4W8RG+IJ4Ek/ALNi</v>
+        <v>oOyHT7Fjw2ucIzf60PDtz1O4bsvvvRxL9EC6EbR+0lDcWCsWG25uwa1a7ooWtbmT</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/settings.xlsx
+++ b/client_gamedata/settings.xlsx
@@ -396,7 +396,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-4_3_0 (client-4.3.0; server-4.3.0)</v>
+        <v>prod-4_4_0 (client-4.4.0; server-4.4.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>Es6bRCZcXqnwDpl3KXeU62dXeF2vuDc4BAnm3xSb1Lhym8C2CUhHGM8lA5v6YtmP</v>
+        <v>NALGwaPrgvTc0+a2VpbaAsUcnL8KLH1Ca04qOgSE3RxiElFqep69CXp9eDAaqfxf</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>9BxyMEW9a8OqXwY6zNNZ7HE91SoA5Yt9W7YRORom+XKy0hXnf7nkNzI8/JzdsQW8</v>
+        <v>i3vvlHDc6sDSSxeLH+wANtCGkhxol+PvQ6A9iFsCmj5uB3Kflg40k7zKgvkh9hFh</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +460,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>WQDFF586JEOUk6cnaaHRvCRatUoGHLSjrD8tDpoEDpHyYRWrLTit7IsDRatWm0Ir</v>
+        <v>b7CLKliezQjV3h1JZNyh1UoUi2gLNQDUHrSs5aLocxWxO4Reag7GcTmgpvGL8j5N</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +468,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>5pfGRtmUTdy82SUHFpw4hgLG2VFbvhycxbaBpy/xtbPeb/JIWmCp3hKxcsMK8J1/</v>
+        <v>mTfw2Q+O59KmSIWqhETrZifysVCd2WhAsY3LZ1JEe9tlEbWQMYeQKVh03fwTadTc</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>nufuuN1OtjK5PftJTY0eAqPq02vHm8egMFVvQaEN6FEcSdOO6tXb1HgsWTrOVZHE</v>
+        <v>uKYL9vapC96WYuCYD2yjYI9pHejQnSOTrzu+DeCDjnjxVNyUxXK6qvhWpj0+5POb</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>rs/mQ4b29mXu0d/FUzfEllIU4kyphmogKwaxCZaAdgSLGQS0/a6terHW4zJgP+O8</v>
+        <v>rE8OG/nb4u+/OsmtMgUN8wJ/LIyfb8GdXDsUeu/K5fHMav/x++dkbJtATJ2brTHC</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +580,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>F00MpXXPg7BfXN6N9mp4FryCHsdFHzMQQZNLkNoZ8ANWywkfkwJRJq91VctD6fwi</v>
+        <v>KdAFUAk5/oVcntyXt9kO1O0Acad+L58wkpDieuK4JKioQrRv6xTjM63zsoOA90gb</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +588,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>uROdbCFSHamQ7eq6ARNqn/fcS7sqh4kNNrEH/mJXtB2veBxBvgPAVwQK1evuyKK5</v>
+        <v>oSm4l+pVFewWb1evAT22efDLtqfQwJZWurHTN0koNQwXBlltpRCx288yNsfQ8+gI</v>
       </c>
     </row>
     <row r="27">
@@ -596,7 +596,7 @@
         <v>IMPERIUM_DIALOG_TAG_UUID</v>
       </c>
       <c r="B27" t="str">
-        <v>oOyHT7Fjw2ucIzf60PDtz1O4bsvvvRxL9EC6EbR+0lDcWCsWG25uwa1a7ooWtbmT</v>
+        <v>7tY1I5eVwvRPJrG1zlR/1efizYxJCx3H9Iw1vsMvKuJm5Bdxt0/78G/f2/C7RF4d</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/settings.xlsx
+++ b/client_gamedata/settings.xlsx
@@ -9,6 +9,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Config'!A1:B27</definedName>
   </definedNames>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,7 +418,7 @@
         <v>CONFIG_MEMO</v>
       </c>
       <c r="B2" t="str">
-        <v>prod-4_4_0 (client-4.4.0; server-4.4.0)</v>
+        <v>prod-4_5_0 (client-4.5.0; server-4.5.0)</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +466,7 @@
         <v>SERVER_HOST</v>
       </c>
       <c r="B8" t="str">
-        <v>NALGwaPrgvTc0+a2VpbaAsUcnL8KLH1Ca04qOgSE3RxiElFqep69CXp9eDAaqfxf</v>
+        <v>UPDShzUgcISajDVAQdz/WV7ejwlXg+ROcYGMq+gk7zeauk7X5qtkN6RYkBP9C05I</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +474,7 @@
         <v>IMPERIUM_GAMEDATA_TAG_UUID</v>
       </c>
       <c r="B9" t="str">
-        <v>i3vvlHDc6sDSSxeLH+wANtCGkhxol+PvQ6A9iFsCmj5uB3Kflg40k7zKgvkh9hFh</v>
+        <v>yHzgq5O95kuAJjXYU+/dvrSGu5e3wc7/TYc30/AgOdUMxuL6FSqjEN3L5bYUcHoJ</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +482,7 @@
         <v>IMPERIUM_LOCALIZATION_TAG_UUID</v>
       </c>
       <c r="B10" t="str">
-        <v>b7CLKliezQjV3h1JZNyh1UoUi2gLNQDUHrSs5aLocxWxO4Reag7GcTmgpvGL8j5N</v>
+        <v>iNX439SPuCwRAc9zqLZfnwlgnJ6VPCEORJwfEan2KqTantADgx1sTT5WfV482kE0</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +490,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_ANDROID_TAG_UUID</v>
       </c>
       <c r="B11" t="str">
-        <v>mTfw2Q+O59KmSIWqhETrZifysVCd2WhAsY3LZ1JEe9tlEbWQMYeQKVh03fwTadTc</v>
+        <v>+bpxJ9cs/tlJ/DARcB/HKA6yVxvGE4iQ6Wq76EXWffPq2uYc51TsLat2XiIKJ3Ja</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +498,7 @@
         <v>IMPERIUM_DOWNLOAD_DATA_IOS_TAG_UUID</v>
       </c>
       <c r="B12" t="str">
-        <v>uKYL9vapC96WYuCYD2yjYI9pHejQnSOTrzu+DeCDjnjxVNyUxXK6qvhWpj0+5POb</v>
+        <v>nGD/fFAItJ9uBVsc7cMAwstIfpBNGbpQf4bT7hKg2rPqQnqCd2NG9ZGUU1ibAm3D</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +594,7 @@
         <v>IMPERIUM_ANDROID_EXP_TAG_UUID</v>
       </c>
       <c r="B24" t="str">
-        <v>rE8OG/nb4u+/OsmtMgUN8wJ/LIyfb8GdXDsUeu/K5fHMav/x++dkbJtATJ2brTHC</v>
+        <v>GeALisY0IMTwjsakcWvfRjdmw6EuLdo7Ia+G065Bnz6vMueywd8tomRPpcno1fdH</v>
       </c>
     </row>
     <row r="25">
@@ -580,7 +602,7 @@
         <v>IMPERIUM_IOS_EXP_TAG_UUID</v>
       </c>
       <c r="B25" t="str">
-        <v>KdAFUAk5/oVcntyXt9kO1O0Acad+L58wkpDieuK4JKioQrRv6xTjM63zsoOA90gb</v>
+        <v>9R18Hc0UlDdAS59J1GkoFpUJfk8lZEdXMxchj4SjfMdBYWO3JgP7Y81B02ZODb60</v>
       </c>
     </row>
     <row r="26">
@@ -588,7 +610,7 @@
         <v>IMPERIUM_CHAR_ASSETS_TAG_UUID</v>
       </c>
       <c r="B26" t="str">
-        <v>oSm4l+pVFewWb1evAT22efDLtqfQwJZWurHTN0koNQwXBlltpRCx288yNsfQ8+gI</v>
+        <v>8y2a97ntTdjSWQysHoQOT4ZGGnel80DETtXp2q1gKBZUZJsipZ9qefby5YhNnryq</v>
       </c>
     </row>
     <row r="27">
@@ -596,7 +618,7 @@
         <v>IMPERIUM_DIALOG_TAG_UUID</v>
       </c>
       <c r="B27" t="str">
-        <v>7tY1I5eVwvRPJrG1zlR/1efizYxJCx3H9Iw1vsMvKuJm5Bdxt0/78G/f2/C7RF4d</v>
+        <v>s1P37zI2mPjk/C6FtmubuLzV/uGBB1+ESi/wEHsy33eiFBavxHtNkdWzQpIFUKIw</v>
       </c>
     </row>
   </sheetData>
